--- a/Semester8/lab/exp2 data.xlsx
+++ b/Semester8/lab/exp2 data.xlsx
@@ -322,11 +322,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1620260352"/>
-        <c:axId val="-1620259264"/>
+        <c:axId val="-1719402928"/>
+        <c:axId val="-1719402384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1620260352"/>
+        <c:axId val="-1719402928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,7 +368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1620259264"/>
+        <c:crossAx val="-1719402384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -376,7 +376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1620259264"/>
+        <c:axId val="-1719402384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1620260352"/>
+        <c:crossAx val="-1719402928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -711,11 +711,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1620260896"/>
-        <c:axId val="-1620258720"/>
+        <c:axId val="-1470340256"/>
+        <c:axId val="-1470339712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1620260896"/>
+        <c:axId val="-1470340256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1620258720"/>
+        <c:crossAx val="-1470339712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -765,7 +765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1620258720"/>
+        <c:axId val="-1470339712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1620260896"/>
+        <c:crossAx val="-1470340256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1238,11 +1238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1620258176"/>
-        <c:axId val="-1620263616"/>
+        <c:axId val="-1470350592"/>
+        <c:axId val="-1470344608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1620258176"/>
+        <c:axId val="-1470350592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,12 +1299,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1620263616"/>
+        <c:crossAx val="-1470344608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1620263616"/>
+        <c:axId val="-1470344608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1620258176"/>
+        <c:crossAx val="-1470350592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4405,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
